--- a/角色.xlsx
+++ b/角色.xlsx
@@ -1,30 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccxxx\PycharmProjects\re0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE36EF3-1908-438D-9C43-2977B951E5BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A121CE8A-9BD4-4D52-9C60-775F4A8BDB50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2E0A843E-394B-47E0-B38E-6D9BAD061813}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2E0A843E-394B-47E0-B38E-6D9BAD061813}"/>
   </bookViews>
   <sheets>
     <sheet name="功能面板" sheetId="8" r:id="rId1"/>
     <sheet name="魔法器面板" sheetId="6" r:id="rId2"/>
     <sheet name="基础面板" sheetId="5" r:id="rId3"/>
     <sheet name="技能面板" sheetId="7" r:id="rId4"/>
-    <sheet name="calc" sheetId="12" r:id="rId5"/>
-    <sheet name="paralimit" sheetId="15" r:id="rId6"/>
-    <sheet name="xzqlimit" sheetId="16" r:id="rId7"/>
-    <sheet name="skill" sheetId="14" r:id="rId8"/>
-    <sheet name="panel" sheetId="10" r:id="rId9"/>
-    <sheet name="mfq" sheetId="13" r:id="rId10"/>
-    <sheet name="base_para" sheetId="11" r:id="rId11"/>
+    <sheet name="高级面板" sheetId="17" r:id="rId5"/>
+    <sheet name="calc" sheetId="12" r:id="rId6"/>
+    <sheet name="paralimit" sheetId="15" r:id="rId7"/>
+    <sheet name="xzqlimit" sheetId="16" r:id="rId8"/>
+    <sheet name="skill" sheetId="14" r:id="rId9"/>
+    <sheet name="panel" sheetId="10" r:id="rId10"/>
+    <sheet name="mfq" sheetId="13" r:id="rId11"/>
+    <sheet name="base_para" sheetId="11" r:id="rId12"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">技能面板!$A$1:$F$5</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="87">
   <si>
     <t>参数</t>
   </si>
@@ -80,9 +84,6 @@
     <t>技能未释放前的连携值</t>
   </si>
   <si>
-    <t>conti</t>
-  </si>
-  <si>
     <t>combo</t>
   </si>
   <si>
@@ -147,215 +148,235 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>技能发动次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不蚀的箭矢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴之水晶球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击几率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连击几率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该表填写魔法器界面的面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必杀技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能的伤害乘以人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能的连携值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整场战斗每个技能的使用次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t>其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼让之举(剑圣的连击转暴击)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础攻击力需准确填写属性界面的黑字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食用合辛魔法器获得的攻击力，如有其它额外的攻击力，也可以加进这里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人的防御值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始无视防御比值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请勿改动英文表名的表格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfc_ign_crit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击几率</t>
+  </si>
+  <si>
+    <t>连击几率</t>
+  </si>
+  <si>
+    <t>初始怒气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合怒气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外怒气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外怒气包括必杀技等级等方式提供的初始怒气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外怒气包括技能、浮空等方式提供的每回合怒气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vampire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>技能连携</t>
-  </si>
-  <si>
-    <t>技能发动次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不蚀的箭矢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴之水晶球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击几率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连击几率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该表填写魔法器界面的面板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必杀技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能的伤害乘以人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能的攻击次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能的连携值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整场战斗每个技能的使用次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色特性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼让之举(剑圣的连击转暴击)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿尼茉尼被动给予额外20%暴击几率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿尼茉尼被动给予额外20%连击几率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础攻击力需准确填写属性界面的黑字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食用合辛魔法器获得的攻击力，如有其它额外的攻击力，也可以加进这里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌人的防御值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始无视防御比值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请勿改动英文表名的表格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dfc_ign_crit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击几率</t>
-  </si>
-  <si>
-    <t>连击几率</t>
-  </si>
-  <si>
-    <t>初始怒气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合怒气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般限制条目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怒气限制条目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外怒气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外怒气包括必杀技等级等方式提供的初始怒气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外怒气包括技能、浮空等方式提供的每回合怒气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vampire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不蚀的箭矢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实测连携</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下限值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒气限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必杀释放时怒气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能连携</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此表格一般不需要填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用连携增伤系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能对所有人的攻击段数总和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连携增伤系数</t>
+  </si>
+  <si>
+    <t>所以也没有含义说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,16 +401,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="SourceHanSansCN"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF222222"/>
-      <name val="SourceHanSansCN"/>
-      <family val="2"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -417,7 +435,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -433,11 +451,23 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -754,18 +784,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21E7B07-1D02-42B5-87B6-D30DF1A03853}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -773,129 +803,127 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>375</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2">
-        <v>0.8</v>
+        <v>0.12</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>800</v>
+      </c>
+      <c r="D13" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>200</v>
+      </c>
+      <c r="D14" t="s">
         <v>68</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>200</v>
-      </c>
-      <c r="D13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>250</v>
-      </c>
-      <c r="D14" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -918,16 +946,92 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52474EE-2BE3-4888-9910-B757D970DE48}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <f>基础面板!B2+基础面板!B8</f>
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <f>基础面板!B3</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <f>基础面板!B4</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <f>基础面板!B5</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <f>基础面板!B6</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
+        <f>基础面板!B7</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EF996A-00A5-4523-B0E8-C2C3A719D742}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" activeCellId="1" sqref="A3 A5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -935,76 +1039,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <f>魔法器面板!B3</f>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4">
         <f>魔法器面板!B4</f>
-        <v>0.30840000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>0.39140000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="4">
         <f>魔法器面板!B5</f>
-        <v>0.33960000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.17319999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4">
         <f>魔法器面板!B6</f>
-        <v>0.44140000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="4">
         <f>魔法器面板!B7</f>
-        <v>1.21E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4">
         <f>魔法器面板!B8</f>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.15329999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2">
         <f>IF(魔法器面板!B2=calc!A2,40%,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B9" s="3">
         <f>IF(魔法器面板!B2=calc!A3,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1014,20 +1118,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A09F52-F78C-4C32-8453-C9B2A88E0CA3}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1035,16 +1139,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <f>基础面板!B2</f>
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1053,44 +1157,45 @@
         <v>375</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2">
         <f>功能面板!B3</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2">
         <f>功能面板!B4</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <f>IF(功能面板!B5=calc!B2,1,-1)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <f>MAX(高级面板!B8, 1000)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>19</v>
-      </c>
-      <c r="B7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>20</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1107,16 +1212,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C94A71-2480-48B2-96A0-139AF8BB21F6}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1124,68 +1227,69 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.39140000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="3">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.30840000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="B5" s="1">
+        <v>0.17319999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.33960000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.44140000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1">
-        <v>1.21E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
       <c r="B8" s="1">
-        <v>0.08</v>
+        <v>0.15329999999999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -1205,16 +1309,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0885E9-6D82-4D77-AB0B-12FB3B180F85}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1222,75 +1326,71 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>1486</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2">
+        <f>15%+15%</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="5">
-        <v>1472</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="B4" s="2">
+        <f>150%</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>23</v>
       </c>
       <c r="B6" s="2">
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="5">
-        <v>126</v>
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1305,95 +1405,100 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="6" max="6" width="29.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2">
         <v>1.25</v>
       </c>
-      <c r="C2" s="6">
-        <v>3.52</v>
+      <c r="C2" s="2">
+        <v>3.75</v>
       </c>
       <c r="D2" s="2">
-        <f>250%*3</f>
-        <v>7.5</v>
-      </c>
-      <c r="E2" s="6">
-        <v>5</v>
+        <v>2.5</v>
+      </c>
+      <c r="E2" s="2">
+        <f>225%*3</f>
+        <v>6.75</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C4" s="2">
         <v>0.3</v>
       </c>
       <c r="D4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="2">
         <v>0.3</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
       <c r="F4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1408,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1419,83 +1524,117 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D45E4CD-402B-4B47-A39F-F0E22CF740D6}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDE39E9-5D7D-4B5C-A19D-28FAB13B44BE}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="18.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>35</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E6" s="2">
+        <f>(0+22%+24%)/3</f>
+        <v>0.15333333333333332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A47ADDB-3B5E-40E0-BD77-450C58192955}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D45E4CD-402B-4B47-A39F-F0E22CF740D6}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2">
-        <f>功能面板!B8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2">
-        <f>功能面板!B9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2">
-        <f>功能面板!B10</f>
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1505,66 +1644,46 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98146E5A-978F-4A28-AEAC-30DC664E2B78}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A47ADDB-3B5E-40E0-BD77-450C58192955}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="2">
-        <f>功能面板!B11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>69</v>
+      </c>
+      <c r="B2">
+        <f>功能面板!B8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3">
-        <f>功能面板!B13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <f>功能面板!B9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4">
-        <f>功能面板!B14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5">
-        <f>功能面板!C13</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6">
-        <f>功能面板!C14</f>
-        <v>250</v>
+        <v>12</v>
+      </c>
+      <c r="B4" s="2">
+        <f>功能面板!B10</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1574,112 +1693,64 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FE68AD-0555-416E-A1A8-E1FDE70D8217}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98146E5A-978F-4A28-AEAC-30DC664E2B78}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2">
-        <f>技能面板!B2</f>
-        <v>1.25</v>
-      </c>
-      <c r="C2" s="2">
-        <f>技能面板!C2</f>
-        <v>3.52</v>
-      </c>
-      <c r="D2" s="2">
-        <f>技能面板!D2</f>
-        <v>7.5</v>
-      </c>
-      <c r="E2" s="2">
-        <f>技能面板!E2</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <f>功能面板!B11</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3">
-        <f>技能面板!B3</f>
-        <v>5</v>
-      </c>
-      <c r="C3" s="3">
-        <f>技能面板!C3</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <f>技能面板!D3</f>
-        <v>4</v>
-      </c>
-      <c r="E3" s="3">
-        <f>技能面板!E3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>70</v>
+      </c>
+      <c r="B3">
+        <f>功能面板!B13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2">
-        <f>技能面板!B4</f>
-        <v>0.2</v>
-      </c>
-      <c r="C4" s="2">
-        <f>技能面板!C4</f>
-        <v>0.3</v>
-      </c>
-      <c r="D4" s="2">
-        <f>技能面板!D4</f>
-        <v>0.3</v>
-      </c>
-      <c r="E4" s="2">
-        <f>技能面板!E4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>71</v>
+      </c>
+      <c r="B4">
+        <f>功能面板!B14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3">
-        <f>技能面板!B5</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <f>技能面板!C5</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <f>技能面板!D5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <f>技能面板!E5</f>
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="B5">
+        <f>功能面板!C13</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6">
+        <f>功能面板!C14</f>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1690,78 +1761,123 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52474EE-2BE3-4888-9910-B757D970DE48}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FE68AD-0555-416E-A1A8-E1FDE70D8217}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="10.77734375" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7">
+        <f>技能面板!B2</f>
+        <v>1.25</v>
+      </c>
+      <c r="C2" s="7">
+        <f>技能面板!C2</f>
+        <v>3.75</v>
+      </c>
+      <c r="D2" s="7">
+        <f>技能面板!D2</f>
+        <v>2.5</v>
+      </c>
+      <c r="E2" s="7">
+        <f>技能面板!E2</f>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="8">
+        <f>技能面板!B3</f>
         <v>3</v>
       </c>
-      <c r="B2">
-        <f>基础面板!B2+基础面板!B8</f>
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="C3" s="8">
+        <f>技能面板!C3</f>
         <v>7</v>
       </c>
-      <c r="B3" s="1">
-        <f>基础面板!B3</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1">
-        <f>基础面板!B4</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1">
-        <f>基础面板!B5</f>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="D3" s="8">
+        <f>技能面板!D3</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="str">
+        <f>IF(高级面板!B5=1,"conti_real","conti")</f>
+        <v>conti</v>
+      </c>
+      <c r="B4" s="7">
+        <f>IF(A4="conti_real",高级面板!B6,技能面板!B4)</f>
+        <v>0.3</v>
+      </c>
+      <c r="C4" s="7">
+        <f>IF(A4="conti_real",高级面板!C6,技能面板!C4)</f>
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="7">
+        <f>IF(A4="conti_real",高级面板!D6,技能面板!D4)</f>
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="7">
+        <f>IF(A4="conti_real",高级面板!E6,技能面板!E4)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1">
-        <f>基础面板!B6</f>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1">
-        <f>基础面板!B7</f>
-        <v>0</v>
+      <c r="B5" s="8">
+        <f>技能面板!B5</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <f>技能面板!C5</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <f>技能面板!D5</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <f>技能面板!E5</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/角色.xlsx
+++ b/角色.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccxxx\PycharmProjects\re0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A121CE8A-9BD4-4D52-9C60-775F4A8BDB50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D52909-AD8A-4D57-8B0D-6A2F408CB3D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2E0A843E-394B-47E0-B38E-6D9BAD061813}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{2E0A843E-394B-47E0-B38E-6D9BAD061813}"/>
   </bookViews>
   <sheets>
     <sheet name="功能面板" sheetId="8" r:id="rId1"/>
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21E7B07-1D02-42B5-87B6-D30DF1A03853}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -868,7 +868,7 @@
         <v>62</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -884,7 +884,7 @@
         <v>61</v>
       </c>
       <c r="B11" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1310,7 +1310,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1604,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D45E4CD-402B-4B47-A39F-F0E22CF740D6}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B3" s="2">
         <f>功能面板!B9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1689,6 +1689,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1714,7 +1715,7 @@
       </c>
       <c r="B2" s="2">
         <f>功能面板!B11</f>
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
